--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF646FD-413E-4B0A-A984-B8BBA1CEB9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA6A5A3-689C-48E4-AD30-DCA00BA87FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="405" windowWidth="24435" windowHeight="16275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="480" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Cost Data" sheetId="16" r:id="rId2"/>
-    <sheet name="AVMC-passenger" sheetId="2" r:id="rId3"/>
-    <sheet name="AVMC-freight" sheetId="4" r:id="rId4"/>
+    <sheet name="AVMC" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="145">
   <si>
     <t>Sources:</t>
   </si>
@@ -91,9 +90,6 @@
     <t>hydrogen vehicle</t>
   </si>
   <si>
-    <t>$/year</t>
-  </si>
-  <si>
     <t>Page 12, Figure 7</t>
   </si>
   <si>
@@ -443,6 +439,45 @@
   </si>
   <si>
     <t>AVMC Annual Vehicle Maintenance Cost</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>Unit: $/year</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1309,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1286,10 +1321,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1309,6 +1340,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1879,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1887,12 +1921,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1902,27 +1936,27 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
-        <v>17</v>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1932,27 +1966,27 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="9" t="s">
-        <v>42</v>
+      <c r="B14" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1962,27 +1996,27 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -1992,27 +2026,27 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="7" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -2022,22 +2056,22 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="9" t="s">
-        <v>82</v>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -2047,27 +2081,27 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="7" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:2">
@@ -2077,27 +2111,27 @@
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="7" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:2">
@@ -2107,27 +2141,27 @@
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="9" t="s">
-        <v>114</v>
+      <c r="B55" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:2">
@@ -2137,17 +2171,17 @@
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="9" t="s">
-        <v>128</v>
+      <c r="B62" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2157,7 +2191,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2165,7 +2199,7 @@
         <v>1.2969999999999999</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2173,7 +2207,7 @@
         <v>0.9143273584567535</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2181,7 +2215,7 @@
         <v>0.95661376543184151</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2189,7 +2223,7 @@
         <v>0.93665959530026111</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2197,7 +2231,7 @@
         <v>1.0663762232760343</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2232,631 +2266,631 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="9" t="s">
-        <v>24</v>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="9" t="s">
-        <v>23</v>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="25" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8">
+        <v>931</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="10">
-        <v>931</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
         <v>489</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
         <f>B18/About!$A$68*About!$A$69</f>
         <v>656.31362430473212</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10">
         <f>B19/About!$A$68*About!$A$69</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8">
         <v>15000</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="13">
+        <v>21</v>
+      </c>
+      <c r="B28" s="11">
         <v>0.22</v>
       </c>
       <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>9270</v>
       </c>
       <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="13">
+        <v>45</v>
+      </c>
+      <c r="B30" s="11">
         <f>$B$29*B27</f>
         <v>2595.6000000000004</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="13">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11">
         <f>$B$29*B28</f>
         <v>2039.4</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="13">
+        <v>45</v>
+      </c>
+      <c r="B32" s="11">
         <f>B30*About!$A$70</f>
         <v>2482.986689554888</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="13">
+        <v>21</v>
+      </c>
+      <c r="B33" s="11">
         <f>B31*About!$A$70</f>
         <v>1950.9181132216977</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="13"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="17">
+        <v>55</v>
+      </c>
+      <c r="B36" s="15">
         <v>590</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <f>B36*About!$A$71</f>
         <v>552.6291612271541</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="19">
+      <c r="B38" s="17">
         <v>11.3</v>
       </c>
       <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="17">
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
         <v>57</v>
       </c>
-      <c r="D38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" s="19">
-        <v>365</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <f>B37*B38*B39</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="17"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="17"/>
+      <c r="A44" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="15"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="13">
+        <v>83</v>
+      </c>
+      <c r="B45" s="11">
         <v>14.36</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="11">
+        <v>10.49</v>
+      </c>
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="13">
-        <v>10.49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="17"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="24">
+        <v>107</v>
+      </c>
+      <c r="B48" s="22">
         <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
         <v>24.839999999999996</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="19">
+        <v>87</v>
+      </c>
+      <c r="B49" s="17">
         <f>24*365</f>
         <v>8760</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="5">
         <f>B48*B49</f>
         <v>217598.39999999997</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="B51" s="17"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="17">
+        <v>90</v>
+      </c>
+      <c r="B52" s="15">
         <f>B45*B50</f>
         <v>3124713.0239999993</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="17">
+        <v>94</v>
+      </c>
+      <c r="B53" s="15">
         <f>B46*B50</f>
         <v>2282607.2159999995</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="17">
+        <v>90</v>
+      </c>
+      <c r="B54" s="15">
         <f>B52*About!$A$72</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="17">
+        <v>94</v>
+      </c>
+      <c r="B55" s="15">
         <f>B53*About!$A$72</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="B56" s="17"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="B57" s="13"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="17">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15">
         <v>1000</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="B60" s="17">
+      <c r="B60" s="15">
         <f>B59*About!A69</f>
         <v>914.32735845675347</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="13"/>
+        <v>75</v>
+      </c>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="B63" s="11"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="B66" s="11"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="17">
+        <v>110</v>
+      </c>
+      <c r="B70" s="15">
         <v>1695890</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="14" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="12" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="25">
+        <v>110</v>
+      </c>
+      <c r="B76" s="23">
         <v>0.1</v>
       </c>
       <c r="C76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="14" t="s">
+      <c r="B77" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C77" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="10">
-        <v>30000</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D77" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="10">
+        <v>110</v>
+      </c>
+      <c r="B78" s="8">
         <f>B76*B77</f>
         <v>3000</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
+      <c r="A83" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3">
       <c r="B84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B85" s="18">
         <f>B20</f>
         <v>656.31362430473212</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="18">
         <f>B21</f>
         <v>344.72326776048766</v>
       </c>
@@ -2865,11 +2899,11 @@
       <c r="A86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="18">
         <f>B32</f>
         <v>2482.986689554888</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="18">
         <f>B33</f>
         <v>1950.9181132216977</v>
       </c>
@@ -2878,7 +2912,7 @@
       <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="18">
         <f>B40</f>
         <v>2279318.9754813975</v>
       </c>
@@ -2891,11 +2925,11 @@
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="18">
         <f>B54</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="18">
         <f>B55</f>
         <v>2434118.0622207024</v>
       </c>
@@ -2904,7 +2938,7 @@
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="18">
         <f>B78</f>
         <v>3000</v>
       </c>
@@ -2917,39 +2951,39 @@
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="18">
         <f>B60</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="19">
         <f>B90*(C85/B85)</f>
         <v>480.24283381885334</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
+      <c r="A92" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:3">
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="18">
         <f>B85</f>
         <v>656.31362430473212</v>
       </c>
-      <c r="C94" s="20">
+      <c r="C94" s="18">
         <f>C85</f>
         <v>344.72326776048766</v>
       </c>
@@ -2958,11 +2992,11 @@
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="18">
         <f>B24</f>
         <v>15000</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="19">
         <f>B95*(C86/B86)</f>
         <v>11785.714285714286</v>
       </c>
@@ -2971,7 +3005,7 @@
       <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="18">
         <f>B87</f>
         <v>2279318.9754813975</v>
       </c>
@@ -2984,11 +3018,11 @@
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="18">
         <f>B54</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C97" s="20">
+      <c r="C97" s="18">
         <f>B55</f>
         <v>2434118.0622207024</v>
       </c>
@@ -2997,7 +3031,7 @@
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="18">
         <f>B70</f>
         <v>1695890</v>
       </c>
@@ -3035,13 +3069,13 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -3050,8 +3084,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
+      <c r="A1" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -3077,7 +3111,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5">
         <f>'Cost Data'!$C85</f>
@@ -3110,7 +3144,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5">
         <f>'Cost Data'!$C86</f>
@@ -3143,9 +3177,9 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26">
+        <v>134</v>
+      </c>
+      <c r="B4" s="24">
         <v>0</v>
       </c>
       <c r="C4" s="5">
@@ -3168,13 +3202,13 @@
         <f>'Cost Data'!$B87</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5">
         <f>'Cost Data'!$C88</f>
@@ -3207,9 +3241,9 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26">
+        <v>136</v>
+      </c>
+      <c r="B6" s="24">
         <v>0</v>
       </c>
       <c r="C6" s="5">
@@ -3232,13 +3266,13 @@
         <f>'Cost Data'!$B89</f>
         <v>3000</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5">
         <f>'Cost Data'!$C90</f>
@@ -3270,265 +3304,194 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6">
+        <f>'Cost Data'!$C94</f>
+        <v>344.72326776048766</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'Cost Data'!$B94</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="D8" s="6">
+        <f>'Cost Data'!$B94</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="E8" s="6">
+        <f>'Cost Data'!$B94</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="F8" s="6">
+        <f>'Cost Data'!$B94</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="G8" s="6">
+        <f>'Cost Data'!$B94</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="H8" s="6">
+        <f>'Cost Data'!$C94</f>
+        <v>344.72326776048766</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="6">
+        <f>'Cost Data'!$C95</f>
+        <v>11785.714285714286</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'Cost Data'!$B95</f>
+        <v>15000</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'Cost Data'!$B95</f>
+        <v>15000</v>
+      </c>
+      <c r="E9" s="6">
+        <f>'Cost Data'!$B95</f>
+        <v>15000</v>
+      </c>
+      <c r="F9" s="6">
+        <f>'Cost Data'!$B95</f>
+        <v>15000</v>
+      </c>
+      <c r="G9" s="6">
+        <f>'Cost Data'!$B95</f>
+        <v>15000</v>
+      </c>
+      <c r="H9" s="6">
+        <f>'Cost Data'!$C95</f>
+        <v>11785.714285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'Cost Data'!$B96</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="D10" s="6">
+        <f>'Cost Data'!$B96</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="E10" s="6">
+        <f>'Cost Data'!$B96</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="F10" s="6">
+        <f>'Cost Data'!$B96</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="G10" s="6">
+        <f>'Cost Data'!$B96</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6">
+        <f>'Cost Data'!$C97</f>
+        <v>2434118.0622207024</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'Cost Data'!$B97</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="D11" s="6">
+        <f>'Cost Data'!$B97</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="E11" s="6">
+        <f>'Cost Data'!$B97</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="F11" s="6">
+        <f>'Cost Data'!$B97</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="G11" s="6">
+        <f>'Cost Data'!$B97</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="H11" s="6">
+        <f>'Cost Data'!$C97</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'Cost Data'!$B98</f>
+        <v>1695890</v>
+      </c>
+      <c r="D12" s="6">
+        <f>'Cost Data'!$B98</f>
+        <v>1695890</v>
+      </c>
+      <c r="E12" s="6">
+        <f>'Cost Data'!$B98</f>
+        <v>1695890</v>
+      </c>
+      <c r="F12" s="6">
+        <f>'Cost Data'!$B98</f>
+        <v>1695890</v>
+      </c>
+      <c r="G12" s="6">
+        <f>'Cost Data'!$B98</f>
+        <v>1695890</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <f>'Cost Data'!$C94</f>
-        <v>344.72326776048766</v>
-      </c>
-      <c r="C2" s="6">
-        <f>'Cost Data'!$B94</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="D2" s="6">
-        <f>'Cost Data'!$B94</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="E2" s="6">
-        <f>'Cost Data'!$B94</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="F2" s="6">
-        <f>'Cost Data'!$B94</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="G2" s="6">
-        <f>'Cost Data'!$B94</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="H2" s="6">
-        <f>'Cost Data'!$C94</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>11785.714285714286</v>
-      </c>
-      <c r="C3" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>15000</v>
-      </c>
-      <c r="D3" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>15000</v>
-      </c>
-      <c r="E3" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>15000</v>
-      </c>
-      <c r="F3" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>15000</v>
-      </c>
-      <c r="G3" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>15000</v>
-      </c>
-      <c r="H3" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>11785.714285714286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="D4" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="E4" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="F4" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="G4" s="6">
-        <f>'Cost Data'!$B96</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <f>'Cost Data'!$C97</f>
-        <v>2434118.0622207024</v>
-      </c>
-      <c r="C5" s="6">
-        <f>'Cost Data'!$B97</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="D5" s="6">
-        <f>'Cost Data'!$B97</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'Cost Data'!$B97</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="F5" s="6">
-        <f>'Cost Data'!$B97</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="G5" s="6">
-        <f>'Cost Data'!$B97</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="H5" s="6">
-        <f>'Cost Data'!$C97</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>1695890</v>
-      </c>
-      <c r="D6" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>1695890</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>1695890</v>
-      </c>
-      <c r="F6" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>1695890</v>
-      </c>
-      <c r="G6" s="6">
-        <f>'Cost Data'!$B98</f>
-        <v>1695890</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="26">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>